--- a/Sprint2/Sprint2.xlsx
+++ b/Sprint2/Sprint2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>DSA SPRINT 2</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>Spirals and Diagonals</t>
+  </si>
+  <si>
+    <t>Remove Adjacent Duplicates</t>
+  </si>
+  <si>
+    <t>Smaller Neighbour Element</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>Valid Stack Sequence</t>
+  </si>
+  <si>
+    <t>Balenced Characters</t>
   </si>
 </sst>
 </file>
@@ -67,11 +82,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +103,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF495060"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,51 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,22 +173,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,24 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,8 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +215,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -254,25 +262,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,151 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,17 +456,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,41 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,172 +539,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -705,7 +713,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1054,7 +1063,7 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1062,10 +1071,10 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1073,10 +1082,10 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1084,18 +1093,18 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1103,7 +1112,7 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1111,16 +1120,64 @@
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D13" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+    <hyperlink ref="D14" r:id="rId1" display="https://oj.masaischool.com/contest/6826/problems"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Sprint2/Sprint2.xlsx
+++ b/Sprint2/Sprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kausik\1DSA\DSA301\DSA301-3rd-\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED435454-780D-44A0-B950-0A685ECB2FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B516BF9-979E-47A1-8869-989D16DEB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>DSA SPRINT 2</t>
   </si>
@@ -83,18 +83,58 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Question names</t>
+  </si>
+  <si>
+    <t>Question links</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Bishop Attack</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Required</t>
+  </si>
+  <si>
+    <t>Pasta Man</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Ordering the process.</t>
+  </si>
+  <si>
+    <t>https://oj.masaischool.com/contest/6886/problems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +158,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF495060"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,23 +184,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -570,6 +624,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6">
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.6">
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.6">
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.6">
+      <c r="B23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.6">
+      <c r="B24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -583,7 +706,9 @@
     <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{15B868ED-49CF-4F47-8C40-928BD9198B27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>